--- a/Documents/Lookup_Type.xlsx
+++ b/Documents/Lookup_Type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C1F2FB-27A1-44E2-881D-64D3B0EE2703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F15D8F-29CA-438D-8C85-33FB633552FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>LOOKUP_TYPE</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>PERIOD_STATUS</t>
+  </si>
+  <si>
+    <t>INVENTORY_TYPE</t>
+  </si>
+  <si>
+    <t>STOCK_TYPE</t>
+  </si>
+  <si>
+    <t>INVENTORY_STATUS</t>
+  </si>
+  <si>
+    <t>SUBINVENTORIES</t>
+  </si>
+  <si>
+    <t>COSTING_METHOD</t>
   </si>
 </sst>
 </file>
@@ -393,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -489,7 +504,33 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Lookup_Type.xlsx
+++ b/Documents/Lookup_Type.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F15D8F-29CA-438D-8C85-33FB633552FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130F39DA-E12E-4ECE-85AF-64A57F619F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="158">
   <si>
     <t>LOOKUP_TYPE</t>
   </si>
@@ -91,6 +100,414 @@
   </si>
   <si>
     <t>COSTING_METHOD</t>
+  </si>
+  <si>
+    <t>IDENTIFIER</t>
+  </si>
+  <si>
+    <t>SOLUTATIONS</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>PROFESSION</t>
+  </si>
+  <si>
+    <t>NATIONALITY</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>EVENT_TYPE</t>
+  </si>
+  <si>
+    <t>EVENTS</t>
+  </si>
+  <si>
+    <t>TRAVELLING_MODE</t>
+  </si>
+  <si>
+    <t>TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>RESERVATION STATUS</t>
+  </si>
+  <si>
+    <t>RESERVATION GUARANTEES</t>
+  </si>
+  <si>
+    <t>RESERVATION SEGMENTS</t>
+  </si>
+  <si>
+    <t>ROOM STATUS</t>
+  </si>
+  <si>
+    <t>SOURCE GROUP</t>
+  </si>
+  <si>
+    <t>SOURCE CODES</t>
+  </si>
+  <si>
+    <t>TURNAWAY GROUP</t>
+  </si>
+  <si>
+    <t>TURNAWAY REASONS</t>
+  </si>
+  <si>
+    <t>ROOM TYPE</t>
+  </si>
+  <si>
+    <t>TARIFF CLASS</t>
+  </si>
+  <si>
+    <t>AMENITIES</t>
+  </si>
+  <si>
+    <t>HOUSEKEEPING TASKS</t>
+  </si>
+  <si>
+    <t>ENGINEERING AND MAINTENANCE</t>
+  </si>
+  <si>
+    <t>NOTE GROUP</t>
+  </si>
+  <si>
+    <t>NOTE TYPE</t>
+  </si>
+  <si>
+    <t>BENEFIT_LEVEL</t>
+  </si>
+  <si>
+    <t>PAYMENT_SOURCE</t>
+  </si>
+  <si>
+    <t>BEN_CLASS_TYPE</t>
+  </si>
+  <si>
+    <t>DATA_TYPE</t>
+  </si>
+  <si>
+    <t>ITEM_USAGE</t>
+  </si>
+  <si>
+    <t>FUNCTION_CLASS</t>
+  </si>
+  <si>
+    <t>IN_OUT_CLASS</t>
+  </si>
+  <si>
+    <t>CREATION_INFORMATION</t>
+  </si>
+  <si>
+    <t>INTL_EXTL</t>
+  </si>
+  <si>
+    <t>ORG_TYPE</t>
+  </si>
+  <si>
+    <t>QUALIFYING_UNITS</t>
+  </si>
+  <si>
+    <t>SUCC_FAIL</t>
+  </si>
+  <si>
+    <t>API_HOOK_CALL_TYPE</t>
+  </si>
+  <si>
+    <t>API_HOOK_CALL_STATUS</t>
+  </si>
+  <si>
+    <t>API_MODULE_TYPE</t>
+  </si>
+  <si>
+    <t>INCLUDE_EXCLUDE</t>
+  </si>
+  <si>
+    <t>AND_OR</t>
+  </si>
+  <si>
+    <t>OPERATOR</t>
+  </si>
+  <si>
+    <t>ACTIVE_INACTIVE</t>
+  </si>
+  <si>
+    <t>EVAL_TYPE</t>
+  </si>
+  <si>
+    <t>ORG_NAVIGATION_METHOD</t>
+  </si>
+  <si>
+    <t>WEEKDAY</t>
+  </si>
+  <si>
+    <t>SCHEDULER_TIME_UNIT</t>
+  </si>
+  <si>
+    <t>AVAILABILITY</t>
+  </si>
+  <si>
+    <t>EXCEPTION_CATEGORY</t>
+  </si>
+  <si>
+    <t>PATTERN_PURPOSE</t>
+  </si>
+  <si>
+    <t>SCHEDULABLE_ENTITY</t>
+  </si>
+  <si>
+    <t>HOURS_OR_DAYS</t>
+  </si>
+  <si>
+    <t>ACTION_TYPE</t>
+  </si>
+  <si>
+    <t>PAYROLL_TYPE</t>
+  </si>
+  <si>
+    <t>WORKLOAD_SHIFTING_LEVEL</t>
+  </si>
+  <si>
+    <t>ACTION_STATUS</t>
+  </si>
+  <si>
+    <t>DIMENSION_TYPE</t>
+  </si>
+  <si>
+    <t>EXPIRY_CHECKING_LEVEL</t>
+  </si>
+  <si>
+    <t>UNITS</t>
+  </si>
+  <si>
+    <t>US_TAX_TYPE</t>
+  </si>
+  <si>
+    <t>BATCH_STATUS</t>
+  </si>
+  <si>
+    <t>ACTION_IF_EXISTS</t>
+  </si>
+  <si>
+    <t>DATE_EFFECTIVE_CHANGES</t>
+  </si>
+  <si>
+    <t>ENTRY_TYPE</t>
+  </si>
+  <si>
+    <t>PROC_PERIOD_TYPE</t>
+  </si>
+  <si>
+    <t>BALANCE_COST</t>
+  </si>
+  <si>
+    <t>DEBIT_CREDIT</t>
+  </si>
+  <si>
+    <t>CREATOR_TYPE</t>
+  </si>
+  <si>
+    <t>ELE_ENTRY_REASON</t>
+  </si>
+  <si>
+    <t>COSTABLE_TYPE</t>
+  </si>
+  <si>
+    <t>ELEMENT_SET_TYPE</t>
+  </si>
+  <si>
+    <t>ELEMENT_CREATOR_TYPE</t>
+  </si>
+  <si>
+    <t>TERMINATION_RULE</t>
+  </si>
+  <si>
+    <t>PROCESSING_TYPE</t>
+  </si>
+  <si>
+    <t>RESULT_RULE_TYPE</t>
+  </si>
+  <si>
+    <t>MESSAGE_LEVEL</t>
+  </si>
+  <si>
+    <t>RATE_TYPE</t>
+  </si>
+  <si>
+    <t>YES_NO_NEVER</t>
+  </si>
+  <si>
+    <t>WARNING_ERROR</t>
+  </si>
+  <si>
+    <t>LEGISLATION_RULE_TYPE</t>
+  </si>
+  <si>
+    <t>MESSAGE_SOURCE_TYPE</t>
+  </si>
+  <si>
+    <t>ADD_SUBTRACT</t>
+  </si>
+  <si>
+    <t>PAYMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>ACTION_POPULATION_STATUS</t>
+  </si>
+  <si>
+    <t>TASK_TYPE</t>
+  </si>
+  <si>
+    <t>PAYEE_TYPE</t>
+  </si>
+  <si>
+    <t>RANGE_STATUS</t>
+  </si>
+  <si>
+    <t>FORM_RESTRICTION_TYPE</t>
+  </si>
+  <si>
+    <t>RUN_RESULT_STATUS</t>
+  </si>
+  <si>
+    <t>HEAD_TAX_PERIOD</t>
+  </si>
+  <si>
+    <t>PROCESS_RULE</t>
+  </si>
+  <si>
+    <t>RANGE_MATCH</t>
+  </si>
+  <si>
+    <t>US_EIC_FILING_STATUS</t>
+  </si>
+  <si>
+    <t>US_GARN_CHK_CALRULE</t>
+  </si>
+  <si>
+    <t>US_GARN_DEP_CALRULE</t>
+  </si>
+  <si>
+    <t>US_GARN_EXMPT_CAT</t>
+  </si>
+  <si>
+    <t>US_GARN_MARITAL_STAT</t>
+  </si>
+  <si>
+    <t>US_GARN_PRO_RULES</t>
+  </si>
+  <si>
+    <t>US_GARN_FEE_RULE</t>
+  </si>
+  <si>
+    <t>US_TAX_BALANCE_CATEGORY</t>
+  </si>
+  <si>
+    <t>US_TAX_LIABLE_PARTY</t>
+  </si>
+  <si>
+    <t>US_TAX_REPORT</t>
+  </si>
+  <si>
+    <t>US_TAX_DOMAIN</t>
+  </si>
+  <si>
+    <t>INCREASING_OR_DECREASING</t>
+  </si>
+  <si>
+    <t>EMP_APL</t>
+  </si>
+  <si>
+    <t>EMP_CAT</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>REC_TYPE</t>
+  </si>
+  <si>
+    <t>BLOOD_TYPE</t>
+  </si>
+  <si>
+    <t>HOME_OFFICE</t>
+  </si>
+  <si>
+    <t>MAR_STATUS</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>STUDENT_STATUS</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>WORK_SCHEDULE</t>
+  </si>
+  <si>
+    <t>ASSESSMENT_CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>ASSESSMENT_LINE_FORMULA</t>
+  </si>
+  <si>
+    <t>PAY_ASS_SYS_STATUS</t>
+  </si>
+  <si>
+    <t>PER_ASS_SYS_STATUS</t>
+  </si>
+  <si>
+    <t>PRIM_OR_SEC</t>
+  </si>
+  <si>
+    <t>ACCEPT_REJECT</t>
+  </si>
+  <si>
+    <t>US_COBRA_COVERAGE_UOM</t>
+  </si>
+  <si>
+    <t>US_COBRA_EVENT</t>
+  </si>
+  <si>
+    <t>US_COBRA_SPECIAL_TYPES</t>
+  </si>
+  <si>
+    <t>COMPETENCE_EVAL_TYPE</t>
+  </si>
+  <si>
+    <t>EVENT_INTERVIEW</t>
+  </si>
+  <si>
+    <t>AUTO_OR_MANUAL</t>
+  </si>
+  <si>
+    <t>REQUEST_STATUS</t>
+  </si>
+  <si>
+    <t>PAY_BASIS</t>
+  </si>
+  <si>
+    <t>LEAV_REAS</t>
+  </si>
+  <si>
+    <t>PERSON_TYPE</t>
+  </si>
+  <si>
+    <t>INVOCATION_TYPE</t>
+  </si>
+  <si>
+    <t>PROCESSING_PERIOD_STATUS</t>
+  </si>
+  <si>
+    <t>MEDICAL EVIDENCE STATUS</t>
+  </si>
+  <si>
+    <t>MEDICAL_TYPES</t>
   </si>
 </sst>
 </file>
@@ -132,7 +549,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -408,15 +846,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -529,7 +967,700 @@
         <v>21</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A48:A160">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
